--- a/data/data_extraction_2023.xlsx
+++ b/data/data_extraction_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\court\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Wetland restoration literature Review\restoration_review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE897AC-12DB-454D-87DB-A1BB213DAB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09F5708-32AF-4B11-977B-0A0BE238979F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1732">
   <si>
     <t>EPPI ID</t>
   </si>
@@ -5768,9 +5768,6 @@
     <t>Dry, moist, flooded</t>
   </si>
   <si>
-    <t>Nutrients</t>
-  </si>
-  <si>
     <t>Phosphorus</t>
   </si>
   <si>
@@ -5813,17 +5810,125 @@
     <t>Microbial biomass</t>
   </si>
   <si>
-    <t>Physiochemical property</t>
-  </si>
-  <si>
     <t>Carbon mineralization</t>
+  </si>
+  <si>
+    <t>11.5 ha (8.4 ha restored, 2 ha as comparison)</t>
+  </si>
+  <si>
+    <t>2000-2006</t>
+  </si>
+  <si>
+    <t>6 years</t>
+  </si>
+  <si>
+    <t>1 - 7 years</t>
+  </si>
+  <si>
+    <t>Sphagnum moss layer transfer, drainage ditch blocked, P fertilization</t>
+  </si>
+  <si>
+    <t>Sampled restored, natural, non-restored after restoration</t>
+  </si>
+  <si>
+    <t>Peat collected at restored and non-restored sites, water samples monthly in all sites; plant tissue once a year in all three sites</t>
+  </si>
+  <si>
+    <t>Randomly sampled</t>
+  </si>
+  <si>
+    <t>Physiochemical soil property</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>Water Chemistry</t>
+  </si>
+  <si>
+    <t>Plant Tissues (chemical analysis)</t>
+  </si>
+  <si>
+    <t>7 years</t>
+  </si>
+  <si>
+    <t>June - October</t>
+  </si>
+  <si>
+    <t>Sphagnum accumulation</t>
+  </si>
+  <si>
+    <t>Five classes (Fig. 1)</t>
+  </si>
+  <si>
+    <t>Non-restored and restored sites sampled, at each location a trench was dug and three peat samples were collected, three replicate samples of peat layer (P 293)</t>
+  </si>
+  <si>
+    <t>Microbes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5842,6 +5947,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5900,7 +6011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5932,6 +6043,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6238,11 +6353,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC70DC97-5443-45DC-A6D5-E3E0CB4C6CB9}">
-  <dimension ref="A1:BA450"/>
+  <dimension ref="A1:BA452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6271,9 +6388,19 @@
     <col min="23" max="23" width="22.7109375" customWidth="1"/>
     <col min="24" max="24" width="20.85546875" customWidth="1"/>
     <col min="25" max="25" width="19.140625" customWidth="1"/>
-    <col min="26" max="27" width="17.42578125" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" customWidth="1"/>
-    <col min="29" max="34" width="12.28515625" customWidth="1"/>
+    <col min="26" max="26" width="24" style="13" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" style="13" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" style="13" customWidth="1"/>
+    <col min="29" max="34" width="12.28515625" style="13" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="13"/>
+    <col min="36" max="36" width="10.42578125" style="13" customWidth="1"/>
+    <col min="37" max="37" width="13" style="13" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" style="13" customWidth="1"/>
+    <col min="39" max="39" width="15" style="13" customWidth="1"/>
+    <col min="40" max="40" width="21.140625" style="13" customWidth="1"/>
+    <col min="41" max="41" width="13.5703125" style="13" customWidth="1"/>
+    <col min="42" max="42" width="13.42578125" style="13" customWidth="1"/>
+    <col min="43" max="43" width="18.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6352,56 +6479,60 @@
       <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="14" t="s">
         <v>1624</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="14" t="s">
         <v>1620</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="14" t="s">
         <v>1608</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="14" t="s">
         <v>1609</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="14" t="s">
         <v>1653</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="14" t="s">
         <v>1632</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="14" t="s">
         <v>1633</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="14" t="s">
         <v>1634</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="14" t="s">
         <v>1635</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="14" t="s">
         <v>1621</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>1622</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="14" t="s">
         <v>1623</v>
       </c>
-      <c r="AL1" s="12" t="s">
-        <v>1681</v>
-      </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AL1" s="14" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AO1" s="14" t="s">
         <v>1694</v>
       </c>
-      <c r="AN1" s="12" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>1696</v>
-      </c>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
+      <c r="AP1" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>1725</v>
+      </c>
       <c r="AR1" s="12"/>
       <c r="AS1" s="12"/>
       <c r="AT1" s="12"/>
@@ -6486,10 +6617,10 @@
       <c r="Y2" t="s">
         <v>1606</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="13">
         <v>1</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6566,13 +6697,13 @@
       <c r="Y3" t="s">
         <v>1564</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="13">
         <v>1</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="13">
         <v>1</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6649,10 +6780,10 @@
       <c r="Y4" t="s">
         <v>1619</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="13">
         <v>1</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6729,10 +6860,10 @@
       <c r="Y5" t="s">
         <v>1619</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="13">
         <v>1</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6809,13 +6940,13 @@
       <c r="Y6" t="s">
         <v>1606</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="13">
         <v>1</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="13">
         <v>1</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6892,13 +7023,13 @@
       <c r="Y7" t="s">
         <v>1619</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="13">
         <v>1</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="13">
         <v>1</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6969,13 +7100,13 @@
       <c r="Y8" t="s">
         <v>1619</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="13">
         <v>1</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="13">
         <v>1</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7046,7 +7177,7 @@
       <c r="Y9" t="s">
         <v>1652</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7117,11 +7248,14 @@
       <c r="Y10" t="s">
         <v>1606</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1704</v>
+      </c>
       <c r="B11">
         <v>10</v>
       </c>
@@ -7148,6 +7282,9 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1705</v>
+      </c>
       <c r="B12">
         <v>14</v>
       </c>
@@ -7162,6 +7299,9 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1706</v>
+      </c>
       <c r="B13">
         <v>16</v>
       </c>
@@ -7228,14 +7368,14 @@
       <c r="X13" t="s">
         <v>1677</v>
       </c>
-      <c r="Y13" t="s">
-        <v>1680</v>
-      </c>
-      <c r="AL13">
+      <c r="AL13" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1707</v>
+      </c>
       <c r="B14">
         <v>20</v>
       </c>
@@ -7246,22 +7386,25 @@
         <v>1661</v>
       </c>
       <c r="E14" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F14" t="s">
         <v>1583</v>
       </c>
       <c r="G14" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H14" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I14" t="s">
         <v>1605</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1708</v>
+      </c>
       <c r="B15">
         <v>24</v>
       </c>
@@ -7272,10 +7415,13 @@
         <v>1661</v>
       </c>
       <c r="E15" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1709</v>
+      </c>
       <c r="B16">
         <v>30</v>
       </c>
@@ -7295,7 +7441,7 @@
         <v>1549</v>
       </c>
       <c r="I16" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="J16">
         <v>2003</v>
@@ -7310,2648 +7456,2951 @@
         <v>1553</v>
       </c>
       <c r="N16" t="s">
+        <v>1686</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P16" t="s">
         <v>1687</v>
-      </c>
-      <c r="O16" t="s">
-        <v>1689</v>
-      </c>
-      <c r="P16" t="s">
-        <v>1688</v>
       </c>
       <c r="Q16">
         <v>1999</v>
       </c>
       <c r="R16" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S16" t="s">
         <v>1690</v>
-      </c>
-      <c r="S16" t="s">
-        <v>1691</v>
       </c>
       <c r="T16" t="s">
         <v>1564</v>
       </c>
       <c r="V16" t="s">
+        <v>1691</v>
+      </c>
+      <c r="W16" t="s">
         <v>1692</v>
       </c>
-      <c r="W16" t="s">
-        <v>1693</v>
-      </c>
-      <c r="AM16">
+      <c r="AM16" s="13">
         <v>1</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" s="13">
         <v>1</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1710</v>
+      </c>
       <c r="B17">
         <v>31</v>
       </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
+        <v>45240</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q17">
+        <v>1999</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1698</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1701</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1702</v>
+      </c>
+      <c r="AN17" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1711</v>
+      </c>
       <c r="B18">
         <v>32</v>
       </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="10">
+        <v>45240</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J18">
+        <v>2006</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q18">
+        <v>1999</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1726</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1699</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1728</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1729</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1711</v>
+      </c>
       <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19" s="10">
+        <v>45240</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J19">
+        <v>2006</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q19">
+        <v>1999</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1726</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1699</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1728</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1729</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1606</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10">
+        <v>45240</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J20">
+        <v>2006</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q20">
+        <v>1999</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1726</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1699</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1728</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1729</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1731</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B21">
         <v>33</v>
       </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B22">
         <v>40</v>
       </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B23">
         <v>41</v>
       </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B24">
         <v>42</v>
       </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B25">
         <v>43</v>
       </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B26">
         <v>44</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B27">
         <v>45</v>
       </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B28">
         <v>46</v>
       </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B29">
         <v>47</v>
       </c>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B30">
         <v>49</v>
       </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B31">
         <v>50</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B32">
         <v>51</v>
-      </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>52</v>
-      </c>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>55</v>
       </c>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" s="10"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C41" s="10"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C42" s="10"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="10"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C45" s="10"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C46" s="10"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C47" s="10"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C48" s="10"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C49" s="10"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" s="10"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" s="10"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" s="10"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="10"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" s="10"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C55" s="10"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C57" s="10"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C58" s="10"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" s="10"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C60" s="10"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C61" s="10"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C62" s="10"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C63" s="10"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C64" s="10"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C65" s="10"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C66" s="10"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C67" s="10"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C68" s="10"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C69" s="10"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C70" s="10"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C71" s="10"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C72" s="10"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" s="10"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74" s="10"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C75" s="10"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C76" s="10"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C77" s="10"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C78" s="10"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C79" s="10"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C80" s="10"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C81" s="10"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C82" s="10"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C83" s="10"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C84" s="10"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C85" s="10"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C86" s="10"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C87" s="10"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C88" s="10"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C89" s="10"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C90" s="10"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C91" s="10"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C92" s="10"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C93" s="10"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C94" s="10"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C95" s="10"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C96" s="10"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C97" s="10"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C98" s="10"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C99" s="10"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C100" s="10"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C101" s="10"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C102" s="10"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C103" s="10"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C104" s="10"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C105" s="10"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C106" s="10"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C107" s="10"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C108" s="10"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C109" s="10"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C110" s="10"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C111" s="10"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C112" s="10"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C113" s="10"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C114" s="10"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C115" s="10"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C116" s="10"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C117" s="10"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C118" s="10"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C119" s="10"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C120" s="10"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C121" s="10"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C122" s="10"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C123" s="10"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C124" s="10"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C125" s="10"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C126" s="10"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C127" s="10"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C128" s="10"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C129" s="10"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C130" s="10"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C131" s="10"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C132" s="10"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C133" s="10"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C134" s="10"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C135" s="10"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C136" s="10"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C137" s="10"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C138" s="10"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C139" s="10"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C140" s="10"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C141" s="10"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C142" s="10"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C143" s="10"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C144" s="10"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C145" s="10"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C146" s="10"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C147" s="10"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C148" s="10"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C149" s="10"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C150" s="10"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C151" s="10"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C152" s="10"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C153" s="10"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C154" s="10"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C155" s="10"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C156" s="10"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C157" s="10"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C158" s="10"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C159" s="10"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C160" s="10"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C161" s="10"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C162" s="10"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C163" s="10"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C164" s="10"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C165" s="10"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C166" s="10"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C167" s="10"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C168" s="10"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C169" s="10"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C170" s="10"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C171" s="10"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C172" s="10"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C173" s="10"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C174" s="10"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C175" s="10"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C176" s="10"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C177" s="10"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C178" s="10"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C179" s="10"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C180" s="10"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C181" s="10"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C182" s="10"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C183" s="10"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C184" s="10"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C185" s="10"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C186" s="10"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C187" s="10"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C188" s="10"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C189" s="10"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C190" s="10"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C191" s="10"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C192" s="10"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C193" s="10"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C194" s="10"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C195" s="10"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C196" s="10"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C197" s="10"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C198" s="10"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C199" s="10"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C200" s="10"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C201" s="10"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C202" s="10"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C203" s="10"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C204" s="10"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C205" s="10"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C206" s="10"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C207" s="10"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C208" s="10"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C209" s="10"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C210" s="10"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C211" s="10"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C212" s="10"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C213" s="10"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C214" s="10"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C215" s="10"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C216" s="10"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C217" s="10"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C218" s="10"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C219" s="10"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C220" s="10"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C221" s="10"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C222" s="10"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C223" s="10"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C224" s="10"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C225" s="10"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C226" s="10"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C227" s="10"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C228" s="10"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C229" s="10"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C230" s="10"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C231" s="10"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C232" s="10"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C233" s="10"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C234" s="10"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C235" s="10"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C236" s="10"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C237" s="10"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C238" s="10"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C239" s="10"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C240" s="10"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C241" s="10"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C242" s="10"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C243" s="10"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C244" s="10"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C245" s="10"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C246" s="10"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C247" s="10"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C248" s="10"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C249" s="10"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C250" s="10"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C251" s="10"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C252" s="10"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C253" s="10"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C254" s="10"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C255" s="10"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="C256" s="10"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C257" s="10"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C258" s="10"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C259" s="10"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C260" s="10"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C261" s="10"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C262" s="10"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C263" s="10"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C264" s="10"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C265" s="10"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C266" s="10"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C267" s="10"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C268" s="10"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C269" s="10"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C270" s="10"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C271" s="10"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C272" s="10"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C273" s="10"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C274" s="10"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C275" s="10"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C276" s="10"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C277" s="10"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C278" s="10"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C279" s="10"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C280" s="10"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C281" s="10"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C282" s="10"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C283" s="10"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C284" s="10"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C285" s="10"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C286" s="10"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C287" s="10"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C288" s="10"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C289" s="10"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C290" s="10"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C291" s="10"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C292" s="10"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C293" s="10"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C294" s="10"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C295" s="10"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C296" s="10"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C297" s="10"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C298" s="10"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C299" s="10"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C300" s="10"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C301" s="10"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C302" s="10"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C303" s="10"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C304" s="10"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C305" s="10"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C306" s="10"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C307" s="10"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C308" s="10"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C309" s="10"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C310" s="10"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C311" s="10"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C312" s="10"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C313" s="10"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C314" s="10"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C315" s="10"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C316" s="10"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C317" s="10"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C318" s="10"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C319" s="10"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C320" s="10"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C321" s="10"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C322" s="10"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C323" s="10"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C324" s="10"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="C325" s="10"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="C326" s="10"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C327" s="10"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C328" s="10"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C329" s="10"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C330" s="10"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C331" s="10"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C332" s="10"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C333" s="10"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C334" s="10"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C335" s="10"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C336" s="10"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C337" s="10"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C338" s="10"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C339" s="10"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C340" s="10"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C341" s="10"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C342" s="10"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C343" s="10"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C344" s="10"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="C345" s="10"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C346" s="10"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C347" s="10"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C348" s="10"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C349" s="10"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C350" s="10"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C351" s="10"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C352" s="10"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C353" s="10"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C354" s="10"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C355" s="10"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="C356" s="10"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C357" s="10"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C358" s="10"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C359" s="10"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C360" s="10"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C361" s="10"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C362" s="10"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C363" s="10"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C364" s="10"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="C365" s="10"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C366" s="10"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C367" s="10"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C368" s="10"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C369" s="10"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C370" s="10"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C371" s="10"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C372" s="10"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C373" s="10"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C374" s="10"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C375" s="10"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C376" s="10"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C377" s="10"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C378" s="10"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C379" s="10"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C380" s="10"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C381" s="10"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C382" s="10"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C383" s="10"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C384" s="10"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C385" s="10"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C386" s="10"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C387" s="10"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C388" s="10"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C389" s="10"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C390" s="10"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C391" s="10"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C392" s="10"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C393" s="10"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C394" s="10"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C395" s="10"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C396" s="10"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C397" s="10"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C398" s="10"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C399" s="10"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C400" s="10"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C401" s="10"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C402" s="10"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C403" s="10"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C404" s="10"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="C405" s="10"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C406" s="10"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C407" s="10"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="C408" s="10"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C409" s="10"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C410" s="10"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C411" s="10"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C412" s="10"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="C413" s="10"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="C414" s="10"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C415" s="10"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C416" s="10"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C417" s="10"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="C418" s="10"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C419" s="10"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C420" s="10"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C421" s="10"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C422" s="10"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="C423" s="10"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="C424" s="10"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C425" s="10"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C426" s="10"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C427" s="10"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C428" s="10"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C429" s="10"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C430" s="10"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C431" s="10"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C432" s="10"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C433" s="10"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C434" s="10"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="C435" s="10"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="C436" s="10"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="C437" s="10"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C438" s="10"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C439" s="10"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C440" s="10"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C441" s="10"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C442" s="10"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="C443" s="10"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C444" s="10"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C445" s="10"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C446" s="10"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C447" s="10"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="C448" s="10"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C449" s="10"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450">
+        <v>993</v>
+      </c>
+      <c r="C450" s="10"/>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B451">
+        <v>994</v>
+      </c>
+      <c r="C451" s="10"/>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B452">
         <v>995</v>
       </c>
-      <c r="C450" s="10"/>
+      <c r="C452" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="Y1:Y12" xr:uid="{AC70DC97-5443-45DC-A6D5-E3E0CB4C6CB9}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9962,7 +10411,7 @@
   <dimension ref="A1:F448"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10253,11 +10702,11 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C16" t="s">

--- a/data/data_extraction_2023.xlsx
+++ b/data/data_extraction_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Wetland restoration literature Review\restoration_review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09F5708-32AF-4B11-977B-0A0BE238979F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164CF2A7-1CC5-46E5-8136-001A2437928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Column descriptions" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Evidence Map'!$Y$1:$Y$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Evidence Map'!$Z$1:$Z$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1789">
   <si>
     <t>EPPI ID</t>
   </si>
@@ -5922,6 +5922,177 @@
   </si>
   <si>
     <t>Microbes</t>
+  </si>
+  <si>
+    <t>May - August</t>
+  </si>
+  <si>
+    <t>14 subsites sampled monthly within the sites</t>
+  </si>
+  <si>
+    <t>Restored, unrestored vegetation and bare, and natural</t>
+  </si>
+  <si>
+    <t>Chapter 1</t>
+  </si>
+  <si>
+    <t>Sherburne National Wildlife Regufe</t>
+  </si>
+  <si>
+    <t>45°30′N 93°44′W</t>
+  </si>
+  <si>
+    <t>Invasive species (Typha)</t>
+  </si>
+  <si>
+    <t>pre-2014</t>
+  </si>
+  <si>
+    <t>Imazapyr application, prescribed burn, cattle grazing</t>
+  </si>
+  <si>
+    <t>Combination of treatments (7 levels)</t>
+  </si>
+  <si>
+    <t>Imazapyr, Burning, Grazing, Herbicide x grazing, herbicide x burning, burning x grazing, herbicide x grazing x burning</t>
+  </si>
+  <si>
+    <t>Sampled bird communities in two wetlands in each treatment (only one for burning x herbicide and burning)</t>
+  </si>
+  <si>
+    <t>2015-2016</t>
+  </si>
+  <si>
+    <t>Bird surveys (passive and active callbacks) during the breeding season one and two years after treatment; vegetation sampling same time as bird sampling</t>
+  </si>
+  <si>
+    <t>Birds</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Parkland Natural Region</t>
+  </si>
+  <si>
+    <t>inland</t>
+  </si>
+  <si>
+    <t>Two year study, only 2015 (year 2) compared natural and restored wetlands</t>
+  </si>
+  <si>
+    <t>Low-Medium-High disturbance of natural wetlands and Restoration</t>
+  </si>
+  <si>
+    <t>Disturbance and permanence class</t>
+  </si>
+  <si>
+    <t>3-10 years</t>
+  </si>
+  <si>
+    <t>2005 to 2012</t>
+  </si>
+  <si>
+    <t>DUC constructed berms, blocking agricultural surface ditches</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Eel River Headwaters Preserve</t>
+  </si>
+  <si>
+    <t>24 ha</t>
+  </si>
+  <si>
+    <t>Cranberry farm</t>
+  </si>
+  <si>
+    <t>120 years</t>
+  </si>
+  <si>
+    <t>Dam/ditch/culvert removal, reconstruction stream channel and flood plain, native plants and woody debris, pit and mound excavation</t>
+  </si>
+  <si>
+    <t>wetland</t>
+  </si>
+  <si>
+    <t>2 year</t>
+  </si>
+  <si>
+    <t>Total of 32 soil samples from 6 sites; restored sites, active cranberry farm, a retired cranberry farm, and a natural reference wetland</t>
+  </si>
+  <si>
+    <t>Comparison among sites</t>
+  </si>
+  <si>
+    <t>Multiple samples from each site</t>
+  </si>
+  <si>
+    <t>connecticut</t>
+  </si>
+  <si>
+    <t>Long Island Sound</t>
+  </si>
+  <si>
+    <t>14 sediment cores from 6 salt marshes</t>
+  </si>
+  <si>
+    <t>Unrestricted(reference), restricted (anthropogenic flow restriction), restored (removal of flow restrictions)</t>
+  </si>
+  <si>
+    <t>mid-1970s</t>
+  </si>
+  <si>
+    <t>Pre-1970s</t>
+  </si>
+  <si>
+    <t>20 years</t>
+  </si>
+  <si>
+    <t>Restricted flow</t>
+  </si>
+  <si>
+    <t>Removal of flow restrictions</t>
+  </si>
+  <si>
+    <t>Soil nutrients</t>
+  </si>
+  <si>
+    <t>Rates of accretion</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Rates of accretion comparison, not sure we care??</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Sacramento-San Joaquin Delta</t>
+  </si>
+  <si>
+    <t>Reflooded</t>
+  </si>
+  <si>
+    <t>Pre-1997</t>
+  </si>
+  <si>
+    <t>Three 20 m transects per site, soil cores taken at 5 m intervals along transects</t>
+  </si>
+  <si>
+    <t>Restored vs degraded comparison</t>
+  </si>
+  <si>
+    <t>1997, 2010, 2014</t>
+  </si>
+  <si>
+    <t>Drained for agriculture (corn)</t>
   </si>
 </sst>
 </file>
@@ -6011,7 +6182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6045,9 +6216,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6353,13 +6523,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC70DC97-5443-45DC-A6D5-E3E0CB4C6CB9}">
-  <dimension ref="A1:BA452"/>
+  <dimension ref="A1:BC453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
+      <selection pane="bottomRight" activeCell="AP28" sqref="AP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,24 +6556,23 @@
     <col min="20" max="21" width="13.85546875" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" customWidth="1"/>
     <col min="23" max="23" width="22.7109375" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" customWidth="1"/>
-    <col min="26" max="26" width="24" style="13" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" style="13" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" style="13" customWidth="1"/>
-    <col min="29" max="34" width="12.28515625" style="13" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="13"/>
-    <col min="36" max="36" width="10.42578125" style="13" customWidth="1"/>
-    <col min="37" max="37" width="13" style="13" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" style="13" customWidth="1"/>
-    <col min="39" max="39" width="15" style="13" customWidth="1"/>
-    <col min="40" max="40" width="21.140625" style="13" customWidth="1"/>
-    <col min="41" max="41" width="13.5703125" style="13" customWidth="1"/>
-    <col min="42" max="42" width="13.42578125" style="13" customWidth="1"/>
-    <col min="43" max="43" width="18.7109375" style="13" customWidth="1"/>
+    <col min="24" max="25" width="20.85546875" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" customWidth="1"/>
+    <col min="27" max="27" width="24" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" customWidth="1"/>
+    <col min="30" max="35" width="12.28515625" customWidth="1"/>
+    <col min="37" max="37" width="10.42578125" customWidth="1"/>
+    <col min="38" max="38" width="13" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" customWidth="1"/>
+    <col min="40" max="40" width="15" customWidth="1"/>
+    <col min="41" max="42" width="21.140625" customWidth="1"/>
+    <col min="43" max="43" width="13.5703125" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" customWidth="1"/>
+    <col min="45" max="45" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -6476,65 +6645,69 @@
       <c r="X1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="12" t="s">
         <v>1624</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="12" t="s">
         <v>1620</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="12" t="s">
         <v>1608</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="12" t="s">
         <v>1609</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="12" t="s">
         <v>1653</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="12" t="s">
         <v>1632</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="12" t="s">
         <v>1633</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="12" t="s">
         <v>1634</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="12" t="s">
         <v>1635</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>1621</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="12" t="s">
         <v>1622</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="12" t="s">
         <v>1623</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="12" t="s">
         <v>1680</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="12" t="s">
         <v>1693</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="12" t="s">
         <v>1703</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
         <v>1694</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AR1" s="12" t="s">
         <v>1724</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AS1" s="12" t="s">
         <v>1725</v>
       </c>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
       <c r="AT1" s="12"/>
       <c r="AU1" s="12"/>
       <c r="AV1" s="12"/>
@@ -6543,8 +6716,10 @@
       <c r="AY1" s="12"/>
       <c r="AZ1" s="12"/>
       <c r="BA1" s="12"/>
-    </row>
-    <row r="2" spans="1:53" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+    </row>
+    <row r="2" spans="1:55" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -6614,17 +6789,17 @@
       <c r="X2" t="s">
         <v>1579</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>1606</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AB2">
         <v>1</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AC2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1581</v>
       </c>
@@ -6694,20 +6869,20 @@
       <c r="X3" t="s">
         <v>1598</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>1564</v>
       </c>
-      <c r="AI3" s="13">
+      <c r="AJ3">
         <v>1</v>
       </c>
-      <c r="AJ3" s="13">
+      <c r="AK3">
         <v>1</v>
       </c>
-      <c r="AK3" s="13">
+      <c r="AL3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1654</v>
       </c>
@@ -6777,17 +6952,17 @@
       <c r="X4" t="s">
         <v>1618</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>1619</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1655</v>
       </c>
@@ -6857,17 +7032,17 @@
       <c r="X5" t="s">
         <v>1631</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>1619</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AD5">
         <v>1</v>
       </c>
-      <c r="AH5" s="13">
+      <c r="AI5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1655</v>
       </c>
@@ -6937,20 +7112,20 @@
       <c r="X6" t="s">
         <v>1631</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>1606</v>
       </c>
-      <c r="AE6" s="13">
+      <c r="AF6">
         <v>1</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AG6">
         <v>1</v>
       </c>
-      <c r="AG6" s="13">
+      <c r="AH6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1656</v>
       </c>
@@ -7020,20 +7195,20 @@
       <c r="X7" t="s">
         <v>1643</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>1619</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="AA7">
         <v>1</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AC7">
         <v>1</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AD7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1657</v>
       </c>
@@ -7097,20 +7272,20 @@
       <c r="W8" t="s">
         <v>1651</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>1619</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="AA8">
         <v>1</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AC8">
         <v>1</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1657</v>
       </c>
@@ -7174,14 +7349,14 @@
       <c r="W9" t="s">
         <v>1651</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>1652</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AD9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1657</v>
       </c>
@@ -7245,14 +7420,14 @@
       <c r="W10" t="s">
         <v>1651</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>1606</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AE10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1704</v>
       </c>
@@ -7281,7 +7456,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1705</v>
       </c>
@@ -7298,7 +7473,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1706</v>
       </c>
@@ -7368,11 +7543,11 @@
       <c r="X13" t="s">
         <v>1677</v>
       </c>
-      <c r="AL13" s="13">
+      <c r="AM13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1707</v>
       </c>
@@ -7401,7 +7576,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1708</v>
       </c>
@@ -7418,7 +7593,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1709</v>
       </c>
@@ -7482,17 +7657,17 @@
       <c r="W16" t="s">
         <v>1692</v>
       </c>
-      <c r="AM16" s="13">
+      <c r="AN16">
         <v>1</v>
       </c>
-      <c r="AN16" s="13">
+      <c r="AO16">
         <v>1</v>
       </c>
-      <c r="AO16" s="13">
+      <c r="AQ16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1710</v>
       </c>
@@ -7556,14 +7731,14 @@
       <c r="X17" t="s">
         <v>1702</v>
       </c>
-      <c r="AN17" s="13">
+      <c r="AO17">
         <v>1</v>
       </c>
-      <c r="AQ17" s="13">
+      <c r="AS17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1711</v>
       </c>
@@ -7573,6 +7748,9 @@
       <c r="C18" s="10">
         <v>45240</v>
       </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" t="s">
         <v>1543</v>
       </c>
@@ -7624,17 +7802,17 @@
       <c r="V18" t="s">
         <v>1730</v>
       </c>
-      <c r="AI18" s="13">
+      <c r="AJ18">
         <v>1</v>
       </c>
-      <c r="AN18" s="13">
+      <c r="AO18">
         <v>1</v>
       </c>
-      <c r="AP18" s="13">
+      <c r="AR18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1711</v>
       </c>
@@ -7644,6 +7822,9 @@
       <c r="C19" s="10">
         <v>45240</v>
       </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
       <c r="F19" t="s">
         <v>1543</v>
       </c>
@@ -7695,14 +7876,14 @@
       <c r="V19" t="s">
         <v>1730</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>1606</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="AA19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1711</v>
       </c>
@@ -7712,6 +7893,9 @@
       <c r="C20" s="10">
         <v>45240</v>
       </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
       <c r="F20" t="s">
         <v>1543</v>
       </c>
@@ -7763,2643 +7947,3100 @@
       <c r="V20" t="s">
         <v>1730</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>1731</v>
       </c>
-      <c r="Z20" s="13">
+      <c r="AA20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1712</v>
       </c>
       <c r="B21">
         <v>33</v>
       </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C21" s="10">
+        <v>45243</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J21">
+        <v>2010</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1732</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q21">
+        <v>1999</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1734</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1713</v>
       </c>
       <c r="B22">
         <v>40</v>
       </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C22" s="10">
+        <v>45243</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1764</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1667</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1738</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Q22">
+        <v>2014</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1639</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1740</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1741</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1742</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1745</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1735</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23" s="10">
+        <v>45243</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1764</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1667</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1738</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Q23">
+        <v>2014</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1639</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1741</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1742</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1745</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1735</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>1714</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>41</v>
       </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" s="10">
+        <v>45243</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J24">
+        <v>2015</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1764</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1667</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1749</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1756</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1644</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1754</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1753</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1755</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1752</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1751</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1750</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1715</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>42</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" s="10">
+        <v>45243</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J25">
+        <v>2014</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1763</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1759</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1760</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1761</v>
+      </c>
+      <c r="Q25">
+        <v>2010</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1762</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1766</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1765</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>1716</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>43</v>
       </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C26" s="10">
+        <v>45243</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J26">
+        <v>1996</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1636</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1590</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1775</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1773</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1772</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1774</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1776</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1771</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1770</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1778</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1717</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>44</v>
       </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C27" s="10">
+        <v>45243</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1779</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>1718</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>45</v>
       </c>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C28" s="10">
+        <v>45243</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1788</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1784</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1787</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1783</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1786</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>1719</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>46</v>
       </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>1720</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>47</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>1721</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>49</v>
       </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>1722</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>50</v>
       </c>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>1723</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>51</v>
       </c>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>52</v>
       </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>55</v>
       </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>56</v>
       </c>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>58</v>
       </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>66</v>
       </c>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>67</v>
       </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>69</v>
       </c>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>70</v>
       </c>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>72</v>
       </c>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>74</v>
       </c>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>79</v>
       </c>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>81</v>
       </c>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>82</v>
       </c>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>83</v>
       </c>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>86</v>
-      </c>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>89</v>
       </c>
       <c r="C48" s="10"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="10"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C50" s="10"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="10"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="10"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="10"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="10"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="10"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="10"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="10"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="10"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="10"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="10"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="10"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C62" s="10"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C63" s="10"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="10"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C65" s="10"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C66" s="10"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C67" s="10"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" s="10"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" s="10"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" s="10"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C71" s="10"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" s="10"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C73" s="10"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="10"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" s="10"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="10"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="10"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C78" s="10"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C79" s="10"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="10"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C81" s="10"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C82" s="10"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C83" s="10"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C84" s="10"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C85" s="10"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C86" s="10"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C87" s="10"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C88" s="10"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C89" s="10"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C90" s="10"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C91" s="10"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C92" s="10"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C93" s="10"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C94" s="10"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C95" s="10"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C96" s="10"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" s="10"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C98" s="10"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" s="10"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C100" s="10"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C101" s="10"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C102" s="10"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C103" s="10"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C104" s="10"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C105" s="10"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C106" s="10"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C107" s="10"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C108" s="10"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C109" s="10"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C110" s="10"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C111" s="10"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C112" s="10"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C113" s="10"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C114" s="10"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C115" s="10"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C116" s="10"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C117" s="10"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C118" s="10"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C119" s="10"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C120" s="10"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C121" s="10"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C122" s="10"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C123" s="10"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C124" s="10"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C125" s="10"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C126" s="10"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C127" s="10"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C128" s="10"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C129" s="10"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C130" s="10"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C131" s="10"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C132" s="10"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C133" s="10"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C134" s="10"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C135" s="10"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C136" s="10"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C137" s="10"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C138" s="10"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C139" s="10"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C140" s="10"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C141" s="10"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C142" s="10"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C143" s="10"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C144" s="10"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C145" s="10"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C146" s="10"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C147" s="10"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C148" s="10"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C149" s="10"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C150" s="10"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C151" s="10"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C152" s="10"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C153" s="10"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C154" s="10"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C155" s="10"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C156" s="10"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C157" s="10"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C158" s="10"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C159" s="10"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C160" s="10"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C161" s="10"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C162" s="10"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C163" s="10"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C164" s="10"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C165" s="10"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C166" s="10"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C167" s="10"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C168" s="10"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C169" s="10"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C170" s="10"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C171" s="10"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C172" s="10"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C173" s="10"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C174" s="10"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C175" s="10"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C176" s="10"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C177" s="10"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C178" s="10"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C179" s="10"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C180" s="10"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C181" s="10"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C182" s="10"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C183" s="10"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C184" s="10"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C185" s="10"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C186" s="10"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C187" s="10"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C188" s="10"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C189" s="10"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C190" s="10"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C191" s="10"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C192" s="10"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C193" s="10"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C194" s="10"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C195" s="10"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C196" s="10"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C197" s="10"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C198" s="10"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C199" s="10"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C200" s="10"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C201" s="10"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C202" s="10"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C203" s="10"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C204" s="10"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C205" s="10"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C206" s="10"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C207" s="10"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C208" s="10"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C209" s="10"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C210" s="10"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C211" s="10"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C212" s="10"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C213" s="10"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C214" s="10"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C215" s="10"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C216" s="10"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C217" s="10"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C218" s="10"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C219" s="10"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C220" s="10"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C221" s="10"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C222" s="10"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C223" s="10"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C224" s="10"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C225" s="10"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C226" s="10"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C227" s="10"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C228" s="10"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C229" s="10"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C230" s="10"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C231" s="10"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C232" s="10"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C233" s="10"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C234" s="10"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C235" s="10"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C236" s="10"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C237" s="10"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C238" s="10"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C239" s="10"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C240" s="10"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C241" s="10"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C242" s="10"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C243" s="10"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C244" s="10"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C245" s="10"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C246" s="10"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C247" s="10"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C248" s="10"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C249" s="10"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C250" s="10"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C251" s="10"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C252" s="10"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C253" s="10"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C254" s="10"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C255" s="10"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C256" s="10"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C257" s="10"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="C258" s="10"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C259" s="10"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C260" s="10"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C261" s="10"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C262" s="10"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C263" s="10"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C264" s="10"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C265" s="10"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C266" s="10"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C267" s="10"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C268" s="10"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C269" s="10"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C270" s="10"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C271" s="10"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C272" s="10"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C273" s="10"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C274" s="10"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C275" s="10"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C276" s="10"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C277" s="10"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C278" s="10"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C279" s="10"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C280" s="10"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C281" s="10"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C282" s="10"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C283" s="10"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C284" s="10"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C285" s="10"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C286" s="10"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C287" s="10"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C288" s="10"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C289" s="10"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C290" s="10"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C291" s="10"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C292" s="10"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C293" s="10"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C294" s="10"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C295" s="10"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C296" s="10"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C297" s="10"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C298" s="10"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C299" s="10"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C300" s="10"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C301" s="10"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C302" s="10"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C303" s="10"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C304" s="10"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C305" s="10"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C306" s="10"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C307" s="10"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C308" s="10"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C309" s="10"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C310" s="10"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C311" s="10"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C312" s="10"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C313" s="10"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C314" s="10"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C315" s="10"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C316" s="10"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C317" s="10"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C318" s="10"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C319" s="10"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C320" s="10"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C321" s="10"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C322" s="10"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C323" s="10"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C324" s="10"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C325" s="10"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C326" s="10"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C327" s="10"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C328" s="10"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C329" s="10"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C330" s="10"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C331" s="10"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C332" s="10"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C333" s="10"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C334" s="10"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C335" s="10"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C336" s="10"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C337" s="10"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C338" s="10"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C339" s="10"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C340" s="10"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C341" s="10"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C342" s="10"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C343" s="10"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C344" s="10"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C345" s="10"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C346" s="10"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C347" s="10"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C348" s="10"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C349" s="10"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C350" s="10"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C351" s="10"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C352" s="10"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C353" s="10"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C354" s="10"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C355" s="10"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C356" s="10"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C357" s="10"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C358" s="10"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C359" s="10"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C360" s="10"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C361" s="10"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C362" s="10"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C363" s="10"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C364" s="10"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C365" s="10"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C366" s="10"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C367" s="10"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C368" s="10"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C369" s="10"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C370" s="10"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C371" s="10"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C372" s="10"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C373" s="10"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C374" s="10"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C375" s="10"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C376" s="10"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C377" s="10"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C378" s="10"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C379" s="10"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C380" s="10"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C381" s="10"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C382" s="10"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C383" s="10"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C384" s="10"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C385" s="10"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C386" s="10"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C387" s="10"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C388" s="10"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C389" s="10"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C390" s="10"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C391" s="10"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C392" s="10"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C393" s="10"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C394" s="10"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C395" s="10"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C396" s="10"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C397" s="10"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C398" s="10"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C399" s="10"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C400" s="10"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C401" s="10"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C402" s="10"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C403" s="10"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C404" s="10"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C405" s="10"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C406" s="10"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C407" s="10"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C408" s="10"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="C409" s="10"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C410" s="10"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C411" s="10"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C412" s="10"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C413" s="10"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C414" s="10"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C415" s="10"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C416" s="10"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C417" s="10"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C418" s="10"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C419" s="10"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C420" s="10"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C421" s="10"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C422" s="10"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C423" s="10"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C424" s="10"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C425" s="10"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C426" s="10"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C427" s="10"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C428" s="10"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C429" s="10"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C430" s="10"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C431" s="10"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C432" s="10"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C433" s="10"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C434" s="10"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C435" s="10"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C436" s="10"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C437" s="10"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="C438" s="10"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C439" s="10"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C440" s="10"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C441" s="10"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C442" s="10"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C443" s="10"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C444" s="10"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C445" s="10"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C446" s="10"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C447" s="10"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C448" s="10"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C449" s="10"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C450" s="10"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C451" s="10"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B452">
+        <v>994</v>
+      </c>
+      <c r="C452" s="10"/>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B453">
         <v>995</v>
       </c>
-      <c r="C452" s="10"/>
+      <c r="C453" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="Y1:Y12" xr:uid="{AC70DC97-5443-45DC-A6D5-E3E0CB4C6CB9}"/>
+  <autoFilter ref="Z1:Z12" xr:uid="{AC70DC97-5443-45DC-A6D5-E3E0CB4C6CB9}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -10410,8 +11051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81298DB2-044B-4ED5-AF2F-8856BB189B0F}">
   <dimension ref="A1:F448"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10722,11 +11363,11 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C17" t="s">
@@ -18815,7 +19456,7 @@
   <sheetViews>
     <sheetView topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA4" sqref="AA4:AA17"/>
+      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
